--- a/PictureMemoryTraining/Output/ZL实验结果呈现.xlsx
+++ b/PictureMemoryTraining/Output/ZL实验结果呈现.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500"/>
+    <workbookView windowHeight="17865" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">实验编号
-</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+  <si>
+    <t>实验编号</t>
   </si>
   <si>
     <t>姓名缩写</t>
@@ -151,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -172,12 +171,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -193,18 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,14 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -228,106 +325,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,7 +353,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,175 +473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,32 +535,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,11 +568,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,30 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,185 +640,185 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="53" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="53" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="53" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="53" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1158,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DW1"/>
+  <dimension ref="A1:DN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="DL1" workbookViewId="0">
-      <selection activeCell="DO5" sqref="DO5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
@@ -1182,29 +1169,29 @@
     <col min="16" max="16" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="17" max="18" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="33" max="33" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="41" max="41" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="40" max="40" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.16666666666667" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="43" max="43" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="44" max="44" width="9.16666666666667" style="1" customWidth="1"/>
     <col min="45" max="45" width="10.6666666666667" style="1" customWidth="1"/>
@@ -1217,34 +1204,34 @@
     <col min="52" max="52" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="53" max="53" width="9.16666666666667" style="1" customWidth="1"/>
     <col min="54" max="54" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="55" max="55" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9.16666666666667" style="1" customWidth="1"/>
-    <col min="57" max="57" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="58" max="59" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="55" max="56" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="57" max="57" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="59" max="59" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="60" max="60" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="61" max="61" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="62" max="62" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="63" max="63" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="64" max="64" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="65" max="65" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="66" max="66" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="69" max="69" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="70" max="70" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="71" max="71" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="72" max="72" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="73" max="73" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="74" max="74" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="75" max="75" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="76" max="76" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="77" max="77" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="62" max="62" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="63" max="63" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="64" max="64" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="65" max="65" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="66" max="66" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="68" max="68" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="69" max="69" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="70" max="70" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="71" max="71" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="72" max="72" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="73" max="73" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="74" max="74" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="75" max="75" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="76" max="76" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="77" max="77" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="78" max="78" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="79" max="79" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="80" max="80" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="81" max="81" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="82" max="82" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="83" max="83" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="79" max="79" width="9.16666666666667" style="1" customWidth="1"/>
+    <col min="80" max="80" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="81" max="81" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="82" max="82" width="9.16666666666667" style="1" customWidth="1"/>
+    <col min="83" max="83" width="10.6666666666667" style="1" customWidth="1"/>
     <col min="84" max="84" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="85" max="85" width="9.16666666666667" style="1" customWidth="1"/>
     <col min="86" max="86" width="10.6666666666667" style="1" customWidth="1"/>
@@ -1257,41 +1244,32 @@
     <col min="93" max="93" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="94" max="94" width="9.16666666666667" style="1" customWidth="1"/>
     <col min="95" max="95" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="96" max="96" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="97" max="97" width="9.16666666666667" style="1" customWidth="1"/>
-    <col min="98" max="98" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="96" max="97" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="98" max="98" width="8.16666666666667" style="1" customWidth="1"/>
     <col min="99" max="99" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="100" max="100" width="9.16666666666667" style="1" customWidth="1"/>
-    <col min="101" max="101" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="102" max="103" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="100" max="100" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="101" max="101" width="8.16666666666667" style="1" customWidth="1"/>
+    <col min="102" max="102" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="103" max="103" width="10.8333333333333" style="1" customWidth="1"/>
     <col min="104" max="104" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="105" max="105" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="106" max="106" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="107" max="107" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="108" max="108" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="109" max="109" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="110" max="110" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="111" max="111" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="112" max="112" width="8.16666666666667" style="1" customWidth="1"/>
-    <col min="113" max="113" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="114" max="114" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="115" max="115" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="116" max="116" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="117" max="117" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="118" max="118" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="119" max="119" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="120" max="120" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="121" max="121" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="122" max="122" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="123" max="123" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="124" max="124" width="10.1666666666667" style="1" customWidth="1"/>
-    <col min="125" max="125" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="126" max="126" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="127" max="127" width="10.8333333333333" style="1" customWidth="1"/>
-    <col min="128" max="16384" width="10.8333333333333" style="1"/>
+    <col min="105" max="105" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="106" max="106" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="107" max="107" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="108" max="108" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="109" max="109" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="110" max="110" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="111" max="111" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="112" max="112" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="113" max="113" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="114" max="114" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="115" max="115" width="10.1666666666667" style="1" customWidth="1"/>
+    <col min="116" max="116" width="10.6666666666667" style="1" customWidth="1"/>
+    <col min="117" max="117" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="118" max="118" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="119" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:127">
+    <row r="1" ht="35" customHeight="1" spans="1:118">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,80 +1327,80 @@
       <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>6</v>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>7</v>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="AO1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="AR1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS1" s="8" t="s">
         <v>6</v>
@@ -1431,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV1" s="8" t="s">
         <v>6</v>
@@ -1440,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="AX1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY1" s="8" t="s">
         <v>6</v>
@@ -1449,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="BA1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB1" s="8" t="s">
         <v>6</v>
@@ -1457,220 +1435,193 @@
       <c r="BC1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BD1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>6</v>
+      <c r="BD1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BH1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BY1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CC1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="CG1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="CK1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="CQ1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>6</v>
+      <c r="CT1" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="CU1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CV1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="CW1" s="10" t="s">
-        <v>6</v>
+      <c r="CV1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CW1" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="CX1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CY1" s="4" t="s">
-        <v>11</v>
+      <c r="CY1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="CZ1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA1" s="10" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="DE1" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="DC1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="DD1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="DI1" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="DG1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="DL1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="DM1" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="DK1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="DL1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="DP1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DQ1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="DT1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="DU1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DW1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
